--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1272401.207446071</v>
+        <v>1266542.110173242</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>12744834.49889432</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134222.401358594</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10540613.55918102</v>
+        <v>10906243.87503101</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>279.9031566167045</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>107.0120291964086</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>28.03004253565356</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>176.7410210396705</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>79.76470074482832</v>
+        <v>79.76470074482877</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>37.67709528776648</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>61.3691750088697</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.14763241892726</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>288.282249390057</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>81.86239603799601</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>203.7029035467952</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>158.6375170540257</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>80.33989744908959</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>64.1320646885659</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>16.61657741840312</v>
+        <v>107.3363007608814</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.6375170540248</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>46.15319674220952</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>165.1525465629633</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>9.392643977674938</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>81.32480550061362</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>247.5787412666982</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.814130455270078</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>25.28839462809292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.13809394730832</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>80.67044411541656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>72.55238900911743</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>143.1741629175204</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>764.3150278161813</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>349.2425776611778</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y2" t="n">
-        <v>1590.416669135309</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.8443805240842</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>460.8443805240842</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>310.7277411117484</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>892.5738315397469</v>
       </c>
       <c r="T4" t="n">
-        <v>639.3706644025392</v>
+        <v>892.5738315397469</v>
       </c>
       <c r="U4" t="n">
-        <v>639.3706644025392</v>
+        <v>892.5738315397469</v>
       </c>
       <c r="V4" t="n">
-        <v>639.3706644025392</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="W4" t="n">
-        <v>639.3706644025392</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="X4" t="n">
-        <v>460.8443805240842</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y4" t="n">
-        <v>460.8443805240842</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="5">
@@ -4564,16 +4564,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4582,22 +4582,22 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
@@ -4606,7 +4606,7 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
         <v>1698.509627919559</v>
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.5011820977084</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C7" t="n">
-        <v>128.5011820977084</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D7" t="n">
-        <v>128.5011820977084</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E7" t="n">
-        <v>128.5011820977084</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F7" t="n">
-        <v>128.5011820977084</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>128.5011820977084</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720648</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5011820977084</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>128.5011820977084</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>128.5011820977084</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>128.5011820977084</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.5011820977084</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1881.708680670285</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1512.746163729874</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1154.480465123123</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>768.6922125248789</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>357.7063077352713</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180638</v>
+        <v>2268.308520734407</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4898,31 +4898,31 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.5270825411068</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>246.5270825411068</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>246.5270825411068</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>246.5270825411068</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>729.201121645011</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>474.5166334391241</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>474.5166334391241</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>246.5270825411068</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.5270825411068</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.555541309953</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1440.555541309953</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1440.555541309953</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1440.555541309953</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1440.555541309953</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.81666304797187</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C16" t="n">
-        <v>93.81666304797187</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D16" t="n">
-        <v>93.81666304797187</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>316.6799057705107</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>174.9680746127088</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309953</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1375.775677988169</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1086.700451332367</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>832.0159631264798</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>542.5987930895193</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>314.6092421915019</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.81666304797187</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2389.334518447045</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>2884.660124662804</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>3482.038612289356</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>3482.038612289356</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>262.7528459758788</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>93.81666304797187</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>93.81666304797187</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687997</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131323</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629337</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936172</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>1227.02787748437</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>1386.046835377028</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>1373.509837562356</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S19" t="n">
-        <v>1190.65500321726</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T19" t="n">
-        <v>971.0535382402015</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U19" t="n">
-        <v>681.9783115843993</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V19" t="n">
-        <v>665.1938899496487</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W19" t="n">
-        <v>665.1938899496487</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>665.1938899496487</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.4013108061185</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>1440.555541309953</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1440.555541309953</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1440.555541309953</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V22" t="n">
-        <v>1440.555541309953</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W22" t="n">
-        <v>1440.555541309953</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1440.555541309953</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6004,13 +6004,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>388.6197041282753</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6197041282753</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1440.555541309953</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.555541309953</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V25" t="n">
-        <v>1185.871053104066</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W25" t="n">
-        <v>1019.050299000063</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>791.0607481020452</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y25" t="n">
-        <v>570.268168958515</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4060.402557526806</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3891.466374598899</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.466374598899</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>3881.97885542953</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>3735.08890793162</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>3567.8928086465</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>3426.180977488698</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>3344.094274136612</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>3391.030413657439</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>3547.043347501772</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3776.591987151573</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>4021.877125582257</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>4269.187457566248</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4477.305488573009</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4636.324446465667</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4690.833152398593</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>4690.833152398593</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>4690.833152398593</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>4690.833152398593</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>4462.843601500575</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>4242.051022357045</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,31 +6445,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6554,16 +6554,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>1440.555541309953</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1440.555541309953</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1440.555541309953</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1440.555541309953</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3494.210913548948</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>3494.210913548948</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>3344.094274136613</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>3344.094274136613</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.094274136613</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>3344.094274136613</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>3344.094274136613</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>3344.094274136613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>3391.03041365744</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>3547.043347501773</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3776.591987151574</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>4021.877125582258</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>4269.187457566249</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4477.30548857301</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4636.324446465668</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4440.753615765565</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4186.069127559678</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3896.651957522718</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>3896.651957522718</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>3675.859378379188</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>810.1249464381656</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C37" t="n">
-        <v>641.1887635102587</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0721240979229</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>343.1590305155298</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>343.1590305155298</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>1440.555541309953</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1440.555541309953</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1440.555541309953</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1440.555541309953</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1440.555541309953</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X37" t="n">
-        <v>1212.565990411935</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y37" t="n">
-        <v>991.7734112684053</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>494.3547824744938</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>325.418599546587</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>175.3019601342512</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>175.3019601342512</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>175.3019601342512</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>1440.555541309953</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1440.555541309953</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1151.480314654151</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>896.7958264482637</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>896.7958264482637</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>896.7958264482637</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.0032473047336</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>1440.555541309953</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>1257.700706964857</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1184.415465541506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1184.415465541506</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>929.7309773356195</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>929.7309773356195</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>929.7309773356195</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>929.7309773356195</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>610.1486577236072</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>610.1486577236072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>610.1486577236072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>462.2355641412141</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>462.2355641412141</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>140.7528025687996</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>296.7657364131322</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>526.3143760629334</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>771.5995144936169</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1018.909846477608</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>1227.027877484369</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>1386.046835377027</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>1440.555541309953</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>1373.509837562355</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>1373.509837562355</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1153.908372585296</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>864.8331459294941</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>610.1486577236072</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>610.1486577236072</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>610.1486577236072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>610.1486577236072</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>59.9471362980691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0.9259388694759565</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>153.2733856387223</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>235.5210659054249</v>
+        <v>144.8013425629466</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>211.1765892730638</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.94713629807001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>171.2522535850787</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>121.3704517736277</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>137.0413186688942</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>205.1981928359774</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>38.60573312254593</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>144.8013425629423</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>140.2357436641759</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>84.85369417685229</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>144.8530613181708</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>22.34997537474845</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900719.5099585137</v>
+        <v>942857.2448038028</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>900719.5099585134</v>
+        <v>942857.2448038028</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900719.5099585133</v>
+        <v>942857.2448038027</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900719.5099585137</v>
+        <v>942857.2448038028</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>900719.5099585134</v>
+        <v>942857.2448038028</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>900719.5099585137</v>
+        <v>942857.2448038027</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900719.5099585137</v>
+        <v>942857.2448038027</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900719.5099585135</v>
+        <v>942857.2448038028</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900719.5099585138</v>
+        <v>942857.2448038028</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>900719.5099585135</v>
+        <v>942857.2448038027</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900719.5099585135</v>
+        <v>942857.2448038027</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900719.5099585135</v>
+        <v>942857.2448038027</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>469940.6138913982</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>469940.6138913981</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="G2" t="n">
-        <v>469940.6138913981</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
-        <v>469940.6138913981</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
-        <v>469940.6138913982</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>469940.6138913982</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>469940.613891398</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>469940.6138913982</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>469940.6138913982</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>469940.6138913981</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>469940.6138913982</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="P2" t="n">
-        <v>469940.6138913982</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835454</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835451</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835453</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
-        <v>761.3882086835451</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>761.3882086835451</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>761.3882086835451</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="K4" t="n">
-        <v>761.3882086835451</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>761.3882086835451</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>761.3882086835451</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>761.3882086835451</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>761.3882086835453</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>761.3882086835451</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1037650.368474469</v>
+        <v>-1037650.368474468</v>
       </c>
       <c r="C6" t="n">
+        <v>291094.3772531241</v>
+      </c>
+      <c r="D6" t="n">
         <v>291094.377253124</v>
       </c>
-      <c r="D6" t="n">
-        <v>291094.3772531242</v>
-      </c>
       <c r="E6" t="n">
-        <v>42644.23405145195</v>
+        <v>41968.94892150503</v>
       </c>
       <c r="F6" t="n">
-        <v>368056.6958588076</v>
+        <v>367381.4107288598</v>
       </c>
       <c r="G6" t="n">
-        <v>368056.6958588072</v>
+        <v>367381.4107288597</v>
       </c>
       <c r="H6" t="n">
-        <v>368056.6958588076</v>
+        <v>367381.4107288599</v>
       </c>
       <c r="I6" t="n">
-        <v>368056.6958588075</v>
+        <v>367381.4107288598</v>
       </c>
       <c r="J6" t="n">
-        <v>150525.49346153</v>
+        <v>149850.2083315825</v>
       </c>
       <c r="K6" t="n">
-        <v>368056.6958588074</v>
+        <v>367381.4107288598</v>
       </c>
       <c r="L6" t="n">
-        <v>368056.6958588076</v>
+        <v>367381.4107288598</v>
       </c>
       <c r="M6" t="n">
-        <v>283001.6679232958</v>
+        <v>282326.3827933481</v>
       </c>
       <c r="N6" t="n">
-        <v>368056.6958588075</v>
+        <v>367381.4107288598</v>
       </c>
       <c r="O6" t="n">
-        <v>368056.6958588075</v>
+        <v>367381.4107288599</v>
       </c>
       <c r="P6" t="n">
-        <v>368056.6958588075</v>
+        <v>367381.4107288599</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14.70460777061601</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>279.225909459645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>161.7389827957883</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>48.96863434936668</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>274.9183408758547</v>
+        <v>274.9183408758542</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>83.38583990545109</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.5862092445533</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>122.6394762633964</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>63.55865198493524</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980529956</v>
       </c>
     </row>
     <row r="11">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.74493692092</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>146.0225991093074</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33672,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023008</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214692</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410458</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915995</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925838</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>8.181160134948398</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023008</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649825</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>231.8673127775771</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454457</v>
+        <v>421.6261329899027</v>
       </c>
       <c r="O19" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925839</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214692</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>47.41024194023002</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>157.5888220649824</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>231.867312777577</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>247.7627660915995</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>249.8084161454456</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>210.220233340163</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>160.6252099925838</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.05929892214689</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1266542.110173242</v>
+        <v>1269812.49414811</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12744834.49889432</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>1134222.401358595</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10906243.87503101</v>
+        <v>10540613.55918102</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>326.452304119939</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>279.9031566167045</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>28.03004253565356</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>261.733760003594</v>
       </c>
       <c r="D5" t="n">
-        <v>79.76470074482877</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="7">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>5.647680961032332</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>37.67709528776648</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>288.282249390057</v>
+        <v>271.7754114124706</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.7029035467952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>35.88641949135544</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>60.64584280152143</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.8792522197246</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>80.33989744908959</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>160.4191070470123</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>107.3363007608814</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>93.83838538711686</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>75.00788511618036</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>46.15319674220952</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>35.21223359181381</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.31126771337247</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>136.4226250355559</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>65.31126771337257</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>3.814130455270078</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,16 +3480,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>42.16254830187123</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.13809394730832</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>65.31126771337314</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>12.73209913092047</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>136.4226250355559</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.300932605789</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="C2" t="n">
-        <v>1175.300932605789</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="D2" t="n">
-        <v>1175.300932605789</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="E2" t="n">
-        <v>1175.300932605789</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>764.3150278161813</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>349.2425776611778</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,25 +4354,25 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645722</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y2" t="n">
         <v>1561.900772669911</v>
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4515,25 +4515,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>892.5738315397469</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>892.5738315397469</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>892.5738315397469</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>637.8893433338601</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>637.8893433338601</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>637.8893433338601</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>417.09676419033</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.509627919559</v>
+        <v>2240.582457090719</v>
       </c>
       <c r="C5" t="n">
-        <v>1698.509627919559</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879452</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="C7" t="n">
-        <v>570.3023580600383</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>420.1857186477025</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>272.2726250653094</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670285</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729874</v>
+        <v>1496.07259001514</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.480465123123</v>
+        <v>1137.806891408389</v>
       </c>
       <c r="E8" t="n">
-        <v>768.6922125248789</v>
+        <v>752.0186388101451</v>
       </c>
       <c r="F8" t="n">
-        <v>357.7063077352713</v>
+        <v>341.0327340205376</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995487</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734407</v>
+        <v>2251.634947019673</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,40 +4889,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,49 +5044,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>726.9555321712448</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>558.019349243338</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687995</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>296.765736413132</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629331</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936164</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>1373.509837562354</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>1190.655003217259</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1190.655003217259</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1190.655003217259</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1190.655003217259</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>908.6039970014846</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>277.9583804647959</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>277.9583804647959</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>277.9583804647959</v>
       </c>
       <c r="E16" t="n">
-        <v>483.8760050556308</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>483.8760050556308</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>316.6799057705107</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9680746127088</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>459.6068452950356</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>459.6068452950356</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>459.6068452950356</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570813</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580256</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.10824923516</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258101</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602299</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="V19" t="n">
-        <v>1647.011051783227</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1036.908127821327</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
         <v>776.1751066403293</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>390.823249958218</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="U22" t="n">
-        <v>1901.695539989114</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.011051783227</v>
+        <v>1003.01621875897</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>713.5990487220099</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>485.6094978239926</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>485.6094978239926</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T25" t="n">
-        <v>2333.297989183966</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.222762528164</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.538274322277</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.121104285317</v>
+        <v>1151.138371272992</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.131553387299</v>
+        <v>923.1488203749748</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.338974243769</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1220.954076332894</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>931.8788496770917</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>677.1943614712048</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>387.7771914342442</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>159.7876405362269</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>159.7876405362269</v>
       </c>
     </row>
     <row r="29">
@@ -6445,31 +6445,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6481,10 +6481,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>459.6068452950356</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>231.6172943970183</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>1374.584563821698</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1154.983098844639</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>865.9078721888367</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>611.2233839829498</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>321.8062139459892</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>870.3164745246296</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>701.3802915967227</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>971.0535382402009</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.757518498399</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.964939354869</v>
+        <v>707.672526468518</v>
       </c>
     </row>
     <row r="38">
@@ -7168,28 +7168,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1220.954076332895</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>931.8788496770924</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>677.1943614712055</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>387.7771914342449</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>159.7876405362276</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>159.7876405362276</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>412.8694853882145</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>243.9333024603076</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1151.480314654151</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>896.7958264482637</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>607.3786564113032</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>594.5179502184542</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1018.909846477608</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>459.6068452950356</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>231.6172943970183</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>231.6172943970183</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>250.2980548978887</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>225.8771555350696</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>109.5547104268446</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9259388694759565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>19.41287313492498</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>144.8013425629466</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>85.99359479482044</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>211.1765892730638</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>171.2522535850787</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>183.372419760281</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>100.2128705788964</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>29.10151325671291</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.715018288272</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>144.8013425629423</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>244.0219260873729</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.693886234629</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>80.1097803095581</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>205.8525542211743</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>38.13892827624255</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>29.10151325671291</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>942857.2448038028</v>
+        <v>900719.5099585132</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>942857.2448038028</v>
+        <v>900719.5099585133</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>942857.2448038027</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>942857.2448038028</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>942857.2448038028</v>
+        <v>900719.5099585137</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>942857.2448038027</v>
+        <v>900719.5099585135</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>942857.2448038027</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>942857.2448038028</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>942857.2448038028</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>942857.2448038027</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>942857.2448038027</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>942857.2448038027</v>
+        <v>900719.5099585134</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913979</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140034</v>
+        <v>469940.613891398</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>469940.6138913981</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>469940.6138913981</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835449</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687973</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835454</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>761.3882086835451</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1037650.368474468</v>
+        <v>-1037650.368474469</v>
       </c>
       <c r="C6" t="n">
+        <v>291094.377253124</v>
+      </c>
+      <c r="D6" t="n">
         <v>291094.3772531241</v>
       </c>
-      <c r="D6" t="n">
-        <v>291094.377253124</v>
-      </c>
       <c r="E6" t="n">
-        <v>41968.94892150503</v>
+        <v>42549.71551800602</v>
       </c>
       <c r="F6" t="n">
-        <v>367381.4107288598</v>
+        <v>367962.1773253605</v>
       </c>
       <c r="G6" t="n">
-        <v>367381.4107288597</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="H6" t="n">
-        <v>367381.4107288599</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="I6" t="n">
-        <v>367381.4107288598</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="J6" t="n">
-        <v>149850.2083315825</v>
+        <v>150430.9749280835</v>
       </c>
       <c r="K6" t="n">
-        <v>367381.4107288598</v>
+        <v>367962.177325361</v>
       </c>
       <c r="L6" t="n">
-        <v>367381.4107288598</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="M6" t="n">
-        <v>282326.3827933481</v>
+        <v>282907.1493898491</v>
       </c>
       <c r="N6" t="n">
-        <v>367381.4107288598</v>
+        <v>367962.1773253607</v>
       </c>
       <c r="O6" t="n">
-        <v>367381.4107288599</v>
+        <v>367962.1773253611</v>
       </c>
       <c r="P6" t="n">
-        <v>367381.4107288599</v>
+        <v>367962.1773253609</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,37 +26965,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.198799748375</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483752</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>55.47806595232277</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14.70460777061601</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27587,7 +27587,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>161.7389827957883</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>103.5391317674136</v>
       </c>
       <c r="D5" t="n">
-        <v>274.9183408758542</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>161.5991401375955</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>107.7439527351648</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>122.6394762633964</v>
+        <v>139.1463142409828</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.88174980529956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>248.74493692092</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194022997</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649823</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>231.8673127775769</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915993</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454455</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>210.2202333401628</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925837</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214681</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410458</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899027</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
